--- a/biology/Histoire de la zoologie et de la botanique/Paul_Biolley/Paul_Biolley.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Paul_Biolley/Paul_Biolley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Biolley, né le 16 février 1862 à Neuchâtel et mort le 16 janvier 1908 au Costa Rica, est un naturaliste.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Biolley naît le 16 février 1862 à Neuchâtel[1]. Il est le frère de l'homme politique Walter Biolley (1866-1905)[2].
-Diplômé d'une licence ès lettres à Neuchâtel, il enseigne pendant deux ans aux Pays-Bas puis est appelé au Costa Rica en 1885 pour mettre sur pied l'école normale[1]. Il est professeur au lycée de Costa Rica et à l'école supérieure des jeunes filles[1].
-Dans le domaine de l'entomologie il commence à se distinguer dès les années 1890, lorsqu'il réalise plusieurs études sur les insectes du Costa Rica, avec son compatriote Henri Pittier (1857-1950)[2].
-Il participe en 1902 à une expédition sur l'île de Coco et devint conservateur du Musée national à San José en 1904[1]. De nombreuses espèces d'invertébrés et de végétaux portent son nom (biolleyi)[1].
-Paul Biolley meurt le 16 janvier 1908 au Costa Rica[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Biolley naît le 16 février 1862 à Neuchâtel. Il est le frère de l'homme politique Walter Biolley (1866-1905).
+Diplômé d'une licence ès lettres à Neuchâtel, il enseigne pendant deux ans aux Pays-Bas puis est appelé au Costa Rica en 1885 pour mettre sur pied l'école normale. Il est professeur au lycée de Costa Rica et à l'école supérieure des jeunes filles.
+Dans le domaine de l'entomologie il commence à se distinguer dès les années 1890, lorsqu'il réalise plusieurs études sur les insectes du Costa Rica, avec son compatriote Henri Pittier (1857-1950).
+Il participe en 1902 à une expédition sur l'île de Coco et devint conservateur du Musée national à San José en 1904. De nombreuses espèces d'invertébrés et de végétaux portent son nom (biolleyi).
+Paul Biolley meurt le 16 janvier 1908 au Costa Rica.
 </t>
         </is>
       </c>
@@ -546,13 +560,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(es) Elementos de historia natural, 1887[2].
-Costa Rica et son avenir, 1889 (lire en ligne)[2].
-(es) Invertebrados de Costa Rica, 1895-1897[2].
-(es) Moluscos terrestres y fluviátiles de la Meseta Central de Costa Rica, 1897[2].
-(es) Elementos de gramática griega; aplicados al estudio de la lengua castellana, 1898[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(es) Elementos de historia natural, 1887.
+Costa Rica et son avenir, 1889 (lire en ligne).
+(es) Invertebrados de Costa Rica, 1895-1897.
+(es) Moluscos terrestres y fluviátiles de la Meseta Central de Costa Rica, 1897.
+(es) Elementos de gramática griega; aplicados al estudio de la lengua castellana, 1898.</t>
         </is>
       </c>
     </row>
